--- a/myUpstream/upstreamInfo/DDG Scores/DDG Score - Life Course.xlsx
+++ b/myUpstream/upstreamInfo/DDG Scores/DDG Score - Life Course.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FusionData\0.CCB\myUpstream\upstreamInfo\DDG Scores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B28962-20A5-4B60-BB8C-AF7149D4BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1D2412-5A02-4637-ADD0-91C2A85F6721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{6D7209C2-ED46-4B69-95BC-2B66BAB0A7F3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6D7209C2-ED46-4B69-95BC-2B66BAB0A7F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Final" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="Final" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
   <si>
     <t>events</t>
   </si>
@@ -335,16 +335,19 @@
     <t>No 3 year?</t>
   </si>
   <si>
-    <t>Conclusion - 1 year</t>
-  </si>
-  <si>
-    <t>Conclusion - 5 year</t>
-  </si>
-  <si>
-    <t>By Sex by Main Race</t>
-  </si>
-  <si>
-    <t>By Sex by All Race</t>
+    <t>raceM = main races: Asian, Black, Latino, White</t>
+  </si>
+  <si>
+    <t>raceA = all races: AI/AN, Asian, Black, Latino,Multi-Race,  NH/PI, White</t>
+  </si>
+  <si>
+    <t>raceT = Total Race</t>
+  </si>
+  <si>
+    <t>sexT = Total Sex</t>
+  </si>
+  <si>
+    <t>sexMF = Female and Male</t>
   </si>
 </sst>
 </file>
@@ -886,9 +889,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -906,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1242,6 +1245,621 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B60786-0738-4CF1-8489-8B352F750912}">
+  <dimension ref="A1:V20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="V1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" s="48">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="48">
+        <v>12</v>
+      </c>
+      <c r="G2" s="18">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2" s="48">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2" s="48">
+        <v>8</v>
+      </c>
+      <c r="V2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" s="48">
+        <v>12</v>
+      </c>
+      <c r="E3" s="48">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3" s="18">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3" s="48">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3" s="48">
+        <v>10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="48">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>14</v>
+      </c>
+      <c r="E4" s="48">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+      <c r="G4" s="18">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>13</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="P4" s="48">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>11</v>
+      </c>
+      <c r="S4" s="48">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="48">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="18">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+      <c r="P5" s="48">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+      <c r="R5" s="48">
+        <v>12</v>
+      </c>
+      <c r="S5">
+        <v>13</v>
+      </c>
+      <c r="V5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="48">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>18</v>
+      </c>
+      <c r="G6" s="18">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>15</v>
+      </c>
+      <c r="M6">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6" s="48">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>13</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" s="18">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <v>17</v>
+      </c>
+      <c r="M7">
+        <v>18</v>
+      </c>
+      <c r="N7">
+        <v>9</v>
+      </c>
+      <c r="O7" s="48">
+        <v>12</v>
+      </c>
+      <c r="P7">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="48">
+        <v>11</v>
+      </c>
+      <c r="R7">
+        <v>15</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8" s="18">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>14</v>
+      </c>
+      <c r="L8">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
+      </c>
+      <c r="N8" s="48">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="48">
+        <v>12</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9" s="18">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>19</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9" s="48">
+        <v>11</v>
+      </c>
+      <c r="O9">
+        <v>14</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+      <c r="R9">
+        <v>17</v>
+      </c>
+      <c r="S9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:S9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB9B8E6-4B5E-4099-8B00-AEBDD12EF4C9}">
   <dimension ref="A1:W48"/>
   <sheetViews>
@@ -1322,7 +1940,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1351,7 +1969,7 @@
       <c r="U2" s="18"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1378,7 +1996,7 @@
       <c r="U3" s="18"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +2059,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +2133,7 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1544,7 +2162,7 @@
       <c r="U7" s="18"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +2189,7 @@
       <c r="U8" s="18"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1634,7 +2252,7 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -1661,7 +2279,7 @@
       <c r="U10" s="18"/>
     </row>
     <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1690,7 +2308,7 @@
       <c r="U11" s="18"/>
     </row>
     <row r="12" spans="1:21" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1717,7 +2335,7 @@
       <c r="U12" s="18"/>
     </row>
     <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +2362,7 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1773,7 +2391,7 @@
       <c r="U14" s="18"/>
     </row>
     <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
@@ -1800,7 +2418,7 @@
       <c r="U15" s="18"/>
     </row>
     <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1827,7 +2445,7 @@
       <c r="U16" s="18"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1866,7 +2484,7 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1905,7 +2523,7 @@
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
@@ -1932,7 +2550,7 @@
       <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1973,7 +2591,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
@@ -2012,7 +2630,7 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
@@ -2051,7 +2669,7 @@
       <c r="U22" s="18"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
@@ -2078,7 +2696,7 @@
       <c r="U23" s="18"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
@@ -2105,7 +2723,7 @@
       <c r="U24" s="18"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
@@ -2132,7 +2750,7 @@
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2161,7 +2779,7 @@
       <c r="U26" s="18"/>
     </row>
     <row r="27" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
         <v>52</v>
       </c>
@@ -2188,7 +2806,7 @@
       <c r="U27" s="18"/>
     </row>
     <row r="28" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
         <v>53</v>
       </c>
@@ -2215,7 +2833,7 @@
       <c r="U28" s="18"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4" t="s">
         <v>54</v>
       </c>
@@ -2248,7 +2866,7 @@
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4" t="s">
         <v>55</v>
       </c>
@@ -2293,7 +2911,7 @@
       <c r="U30" s="18"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="11" t="s">
         <v>56</v>
       </c>
@@ -2332,10 +2950,10 @@
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="17">
         <f t="shared" ref="D32:U32" si="0">SUM(D2:D31)</f>
         <v>11</v>
@@ -3077,62 +3695,62 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="50"/>
-      <c r="N41" s="50"/>
-      <c r="O41" s="50"/>
-      <c r="P41" s="50" t="s">
+      <c r="K41" s="56"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="56"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="56"/>
+      <c r="P41" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
+      <c r="Q41" s="56"/>
+      <c r="R41" s="56"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D42" s="50" t="s">
+      <c r="D42" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="50" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50" t="s">
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50" t="s">
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50" t="s">
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50" t="s">
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="17"/>
@@ -3220,22 +3838,29 @@
       <c r="P47" s="13"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="50"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
+      <c r="M48" s="50"/>
+      <c r="N48" s="50"/>
+      <c r="O48" s="50"/>
       <c r="P48" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P41:U41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="S42:U42"/>
     <mergeCell ref="D48:I48"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="B32:C32"/>
@@ -3248,625 +3873,11 @@
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="J41:O41"/>
-    <mergeCell ref="P41:U41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="S42:U42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D33:U40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B60786-0738-4CF1-8489-8B352F750912}">
-  <dimension ref="A1:W20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="3.5703125" customWidth="1"/>
-    <col min="8" max="12" width="3.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="V1" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2" s="48">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" s="48">
-        <v>12</v>
-      </c>
-      <c r="G2" s="18">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>7</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2" s="48">
-        <v>5</v>
-      </c>
-      <c r="Q2">
-        <v>3</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
-      <c r="S2" s="48">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>100</v>
-      </c>
-      <c r="W2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3" s="48">
-        <v>12</v>
-      </c>
-      <c r="E3" s="48">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3" s="18">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>7</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>12</v>
-      </c>
-      <c r="N3">
-        <v>3</v>
-      </c>
-      <c r="O3">
-        <v>6</v>
-      </c>
-      <c r="P3" s="48">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>9</v>
-      </c>
-      <c r="S3" s="48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="48">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4" s="48">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4" s="18">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>7</v>
-      </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
-      <c r="J4">
-        <v>11</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4" s="48">
-        <v>9</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>11</v>
-      </c>
-      <c r="S4" s="48">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="48">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5" s="18">
-        <v>18</v>
-      </c>
-      <c r="H5">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-      <c r="L5">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5">
-        <v>6</v>
-      </c>
-      <c r="O5">
-        <v>9</v>
-      </c>
-      <c r="P5" s="48">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>8</v>
-      </c>
-      <c r="R5" s="48">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="48">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-      <c r="G6" s="18">
-        <v>19</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-      <c r="I6">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>11</v>
-      </c>
-      <c r="L6">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>16</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
-      </c>
-      <c r="P6" s="48">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="48">
-        <v>9</v>
-      </c>
-      <c r="R6">
-        <v>13</v>
-      </c>
-      <c r="S6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" s="18">
-        <v>21</v>
-      </c>
-      <c r="H7">
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <v>14</v>
-      </c>
-      <c r="J7">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>13</v>
-      </c>
-      <c r="L7">
-        <v>17</v>
-      </c>
-      <c r="M7">
-        <v>18</v>
-      </c>
-      <c r="N7">
-        <v>9</v>
-      </c>
-      <c r="O7" s="48">
-        <v>12</v>
-      </c>
-      <c r="P7">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="48">
-        <v>11</v>
-      </c>
-      <c r="R7">
-        <v>15</v>
-      </c>
-      <c r="S7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>19</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>21</v>
-      </c>
-      <c r="G8" s="18">
-        <v>22</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>16</v>
-      </c>
-      <c r="K8">
-        <v>14</v>
-      </c>
-      <c r="L8">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <v>19</v>
-      </c>
-      <c r="N8" s="48">
-        <v>10</v>
-      </c>
-      <c r="O8">
-        <v>13</v>
-      </c>
-      <c r="P8">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="48">
-        <v>12</v>
-      </c>
-      <c r="R8">
-        <v>16</v>
-      </c>
-      <c r="S8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>22</v>
-      </c>
-      <c r="G9" s="18">
-        <v>23</v>
-      </c>
-      <c r="H9">
-        <v>13</v>
-      </c>
-      <c r="I9">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>17</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
-      </c>
-      <c r="L9">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>20</v>
-      </c>
-      <c r="N9" s="48">
-        <v>11</v>
-      </c>
-      <c r="O9">
-        <v>14</v>
-      </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
-      <c r="Q9">
-        <v>13</v>
-      </c>
-      <c r="R9">
-        <v>17</v>
-      </c>
-      <c r="S9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="18"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:S9">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>12</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4181,7 +4192,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -4192,7 +4203,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -4201,7 +4212,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4245,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
@@ -4278,7 +4289,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -4289,7 +4300,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
@@ -4298,7 +4309,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -4331,7 +4342,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="56"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
@@ -4340,7 +4351,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="52" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -4351,7 +4362,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
@@ -4360,7 +4371,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="6" t="s">
         <v>25</v>
       </c>
@@ -4369,7 +4380,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4380,7 +4391,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4389,7 +4400,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4398,7 +4409,7 @@
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="4" t="s">
         <v>31</v>
       </c>
@@ -4407,7 +4418,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="4" t="s">
         <v>32</v>
       </c>
@@ -4416,7 +4427,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
@@ -4425,7 +4436,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="52" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4460,7 +4471,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="4" t="s">
         <v>36</v>
       </c>
@@ -4469,7 +4480,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="4" t="s">
         <v>37</v>
       </c>
@@ -4478,7 +4489,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
         <v>38</v>
       </c>
@@ -4487,7 +4498,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="4" t="s">
         <v>39</v>
       </c>
@@ -4496,7 +4507,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
@@ -4505,7 +4516,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="52" t="s">
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4519,7 +4530,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="4" t="s">
         <v>43</v>
       </c>
@@ -4531,7 +4542,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="54"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="4" t="s">
         <v>44</v>
       </c>
@@ -4543,7 +4554,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
@@ -4555,7 +4566,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="54"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="4" t="s">
         <v>46</v>
       </c>
@@ -4567,7 +4578,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="54"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="4" t="s">
         <v>47</v>
       </c>
@@ -4579,7 +4590,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="4" t="s">
         <v>48</v>
       </c>
@@ -4591,7 +4602,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="6" t="s">
         <v>49</v>
       </c>
@@ -4603,7 +4614,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4614,7 +4625,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="54"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="4" t="s">
         <v>52</v>
       </c>
@@ -4623,7 +4634,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="54"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="4" t="s">
         <v>53</v>
       </c>
@@ -4632,7 +4643,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4641,7 +4652,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="54"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="4" t="s">
         <v>55</v>
       </c>
@@ -4674,7 +4685,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
+      <c r="A39" s="54"/>
       <c r="B39" s="11" t="s">
         <v>56</v>
       </c>
